--- a/classfiers/chatty/knn/nearmiss/chatty-knn-nearmiss-results.xlsx
+++ b/classfiers/chatty/knn/nearmiss/chatty-knn-nearmiss-results.xlsx
@@ -476,7 +476,7 @@
         <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.8333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -571,7 +571,7 @@
         <v>0.9314285714285713</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/knn/nearmiss/chatty-knn-nearmiss-results.xlsx
+++ b/classfiers/chatty/knn/nearmiss/chatty-knn-nearmiss-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8833333333333332</v>
+        <v>0.6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9314285714285713</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9666666666666666</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
   </sheetData>
